--- a/reference.xlsx
+++ b/reference.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnsle\Desktop\학교\지진\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnsle\PycharmProjects\changer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$B$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="487">
   <si>
     <t>Comp.</t>
   </si>
@@ -357,12 +360,6 @@
     <t>IMPVALL.BG_E-ELC-UP.AT2</t>
   </si>
   <si>
-    <t>El Alamo</t>
-  </si>
-  <si>
-    <t>ELALAMO_ELC180.AT2</t>
-  </si>
-  <si>
     <t>ELALAMO_ELC270.AT2</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
   </si>
   <si>
     <t>Golden Gate Park</t>
-  </si>
-  <si>
-    <t>SANFRAN_GGP010.AT2</t>
   </si>
   <si>
     <t>SANFRAN_GGP100.AT2</t>
@@ -1305,138 +1299,250 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Borrego</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORREGO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Calif-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRCALIF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Calif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hollister-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hollister</t>
+  </si>
+  <si>
+    <t>Kern County</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lytle Creek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managua, Nicaragua-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managua, Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGUA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Calif-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Calif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkfield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkfield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARKF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Mugu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Fernando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Fernando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFERN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southern Calif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southern Calif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCALIF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NWCALIF.AB_A-FRN045.AT2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwest Calif-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NWCALIF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwest Calif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>IMPVALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Borrego</t>
+    <t>NCALIF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BORREGO</t>
+    <t>NWCALIF</t>
+  </si>
+  <si>
+    <t>SANFRAN_GGP010.AT2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Central Calif-01</t>
+    <t>SANFRAN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CTRCALIF</t>
+    <t>San Francisco</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Central Calif</t>
+    <t>PTMUGU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hollister-01</t>
+    <t>LYTLECR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hollister</t>
+    <t>KERN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HOLLISTR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kern County</t>
+    <t>El Alamo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ELALAMO_ELC180.AT2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELALAMO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>Southern Calif</t>
+  </si>
+  <si>
+    <t>SCALIF</t>
+  </si>
+  <si>
+    <t>SANFRAN</t>
+  </si>
+  <si>
+    <t>SFERN</t>
+  </si>
+  <si>
+    <t>Point Mugu</t>
+  </si>
+  <si>
+    <t>PTMUGU</t>
+  </si>
+  <si>
+    <t>PARKF</t>
+  </si>
+  <si>
+    <t>Northwest Calif-01</t>
+  </si>
+  <si>
+    <t>NCALIF</t>
+  </si>
+  <si>
+    <t>Northern Calif-01</t>
+  </si>
+  <si>
+    <t>MANAGUA</t>
+  </si>
+  <si>
+    <t>Managua, Nicaragua-01</t>
+  </si>
+  <si>
+    <t>LYTLECR</t>
+  </si>
+  <si>
     <t>KERN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lytle Creek</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYTLECR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Managua, Nicaragua-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Managua, Nicaragua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANAGUA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northern Calif-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northern Calif</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCALIF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkfield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parkfield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARKF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point Mugu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTMUGU</t>
-  </si>
-  <si>
-    <t>San Fernando</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Fernando</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFERN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Southern Calif</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Southern Calif</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCALIF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NWCALIF.AB_A-FRN045.AT2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northwest Calif-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NWCALIF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northwest Calif</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPVALL</t>
+  </si>
+  <si>
+    <t>Imperial Valley-01</t>
+  </si>
+  <si>
+    <t>HUMBOLT</t>
+  </si>
+  <si>
+    <t>HOLLISTR</t>
+  </si>
+  <si>
+    <t>Hollister-01</t>
+  </si>
+  <si>
+    <t>El Alamo</t>
+  </si>
+  <si>
+    <t>ELALAMO</t>
+  </si>
+  <si>
+    <t>CTRCALIF</t>
+  </si>
+  <si>
+    <t>Central Calif-01</t>
+  </si>
+  <si>
+    <t>BORREGO</t>
+  </si>
+  <si>
+    <t>Borrego</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1522,15 +1628,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1580,7 +1677,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1588,11 +1687,135 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1604,7 +1827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,13 +1852,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1644,22 +1876,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1944,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="Y91" sqref="Y91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1959,7 +2206,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2258,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K5" s="2">
         <v>1938</v>
@@ -2326,7 +2573,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="K6" s="4">
         <v>1938</v>
@@ -2356,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>43</v>
@@ -2530,7 +2777,7 @@
         <v>0.1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K9" s="2">
         <v>1941</v>
@@ -2598,7 +2845,7 @@
         <v>0.1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K10" s="4">
         <v>1942</v>
@@ -2802,7 +3049,7 @@
         <v>0.1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K13" s="2">
         <v>1952</v>
@@ -3006,7 +3253,7 @@
         <v>0.6</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K16" s="4">
         <v>1952</v>
@@ -3142,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K18" s="4">
         <v>1952</v>
@@ -3278,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K20" s="4">
         <v>1954</v>
@@ -3482,7 +3729,7 @@
         <v>0.1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>109</v>
+        <v>456</v>
       </c>
       <c r="K23" s="2">
         <v>1956</v>
@@ -3512,13 +3759,13 @@
         <v>1</v>
       </c>
       <c r="T23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V23" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -3550,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K24" s="4">
         <v>1957</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M24" s="4">
         <v>5.28</v>
@@ -3580,13 +3827,13 @@
         <v>1</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -3618,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K25" s="2">
         <v>1960</v>
@@ -3648,13 +3895,13 @@
         <v>1</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -3686,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K26" s="4">
         <v>1960</v>
@@ -3716,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -3754,7 +4001,7 @@
         <v>0.2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K27" s="2">
         <v>1961</v>
@@ -3784,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -3822,7 +4069,7 @@
         <v>0.1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K28" s="4">
         <v>1961</v>
@@ -3852,13 +4099,13 @@
         <v>1</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -3890,13 +4137,13 @@
         <v>0.1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K29" s="2">
         <v>1966</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M29" s="2">
         <v>6.19</v>
@@ -3920,13 +4167,13 @@
         <v>1</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -3958,13 +4205,13 @@
         <v>0.9</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K30" s="4">
         <v>1966</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M30" s="4">
         <v>6.19</v>
@@ -3988,13 +4235,13 @@
         <v>1</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4026,13 +4273,13 @@
         <v>0.4</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K31" s="2">
         <v>1966</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M31" s="2">
         <v>6.19</v>
@@ -4056,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4094,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K32" s="4">
         <v>1966</v>
@@ -4124,13 +4371,13 @@
         <v>1</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4162,13 +4409,13 @@
         <v>0.5</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K33" s="2">
         <v>1966</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M33" s="2">
         <v>6.19</v>
@@ -4192,13 +4439,13 @@
         <v>1</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4230,7 +4477,7 @@
         <v>0.1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K34" s="4">
         <v>1967</v>
@@ -4260,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4298,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K35" s="2">
         <v>1967</v>
@@ -4328,13 +4575,13 @@
         <v>1</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4366,7 +4613,7 @@
         <v>0.2</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K36" s="4">
         <v>1968</v>
@@ -4396,13 +4643,13 @@
         <v>1</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4434,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K37" s="2">
         <v>1968</v>
@@ -4464,13 +4711,13 @@
         <v>1</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4502,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K38" s="4">
         <v>1968</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M38" s="4">
         <v>6.63</v>
@@ -4532,13 +4779,13 @@
         <v>1</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4570,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K39" s="2">
         <v>1968</v>
@@ -4600,13 +4847,13 @@
         <v>1</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4638,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K40" s="4">
         <v>1968</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M40" s="4">
         <v>6.63</v>
@@ -4668,13 +4915,13 @@
         <v>1</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4706,19 +4953,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K41" s="2">
         <v>1970</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M41" s="2">
         <v>5.33</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O41" s="2">
         <v>103.23</v>
@@ -4736,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="45" x14ac:dyDescent="0.3">
@@ -4774,19 +5021,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K42" s="4">
         <v>1970</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M42" s="4">
         <v>5.33</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O42" s="4">
         <v>21.33</v>
@@ -4804,13 +5051,13 @@
         <v>1</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -4842,19 +5089,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K43" s="2">
         <v>1970</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M43" s="2">
         <v>5.33</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O43" s="2">
         <v>17.399999999999999</v>
@@ -4872,13 +5119,13 @@
         <v>1</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4910,19 +5157,19 @@
         <v>0</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K44" s="4">
         <v>1970</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M44" s="4">
         <v>5.33</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O44" s="4">
         <v>29.18</v>
@@ -4940,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -4978,19 +5225,19 @@
         <v>0.1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K45" s="2">
         <v>1970</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M45" s="2">
         <v>5.33</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O45" s="2">
         <v>18.39</v>
@@ -5008,13 +5255,13 @@
         <v>1</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5046,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K46" s="4">
         <v>1970</v>
@@ -5058,7 +5305,7 @@
         <v>5.33</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O46" s="4">
         <v>73.459999999999994</v>
@@ -5076,13 +5323,13 @@
         <v>1</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -5114,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K47" s="2">
         <v>1970</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M47" s="2">
         <v>5.33</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O47" s="2">
         <v>90.25</v>
@@ -5144,13 +5391,13 @@
         <v>1</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5182,19 +5429,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K48" s="4">
         <v>1970</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M48" s="4">
         <v>5.33</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O48" s="4">
         <v>29.49</v>
@@ -5212,13 +5459,13 @@
         <v>1</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -5250,19 +5497,19 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K49" s="2">
         <v>1970</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M49" s="2">
         <v>5.33</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O49" s="2">
         <v>42.14</v>
@@ -5280,13 +5527,13 @@
         <v>1</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5318,19 +5565,19 @@
         <v>0.1</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K50" s="4">
         <v>1970</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M50" s="4">
         <v>5.33</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O50" s="4">
         <v>10.7</v>
@@ -5348,13 +5595,13 @@
         <v>1</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -5386,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K51" s="2">
         <v>1971</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M51" s="2">
         <v>6.61</v>
@@ -5416,13 +5663,13 @@
         <v>1</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -5454,13 +5701,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K52" s="4">
         <v>1971</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M52" s="4">
         <v>6.61</v>
@@ -5484,13 +5731,13 @@
         <v>1</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5522,13 +5769,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K53" s="2">
         <v>1971</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M53" s="2">
         <v>6.61</v>
@@ -5552,13 +5799,13 @@
         <v>1</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5590,13 +5837,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K54" s="4">
         <v>1971</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M54" s="4">
         <v>6.61</v>
@@ -5620,13 +5867,13 @@
         <v>1</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -5658,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K55" s="2">
         <v>1971</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M55" s="2">
         <v>6.61</v>
@@ -5688,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5726,13 +5973,13 @@
         <v>0.1</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K56" s="4">
         <v>1971</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M56" s="4">
         <v>6.61</v>
@@ -5756,13 +6003,13 @@
         <v>1</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5794,13 +6041,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K57" s="2">
         <v>1971</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M57" s="2">
         <v>6.61</v>
@@ -5824,13 +6071,13 @@
         <v>1</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="45" x14ac:dyDescent="0.3">
@@ -5862,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K58" s="4">
         <v>1971</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M58" s="4">
         <v>6.61</v>
@@ -5892,13 +6139,13 @@
         <v>1</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5930,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K59" s="2">
         <v>1971</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M59" s="2">
         <v>6.61</v>
@@ -5960,13 +6207,13 @@
         <v>1</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -5998,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K60" s="4">
         <v>1971</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M60" s="4">
         <v>6.61</v>
@@ -6028,13 +6275,13 @@
         <v>1</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -6066,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K61" s="2">
         <v>1971</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M61" s="2">
         <v>6.61</v>
@@ -6096,13 +6343,13 @@
         <v>1</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6134,13 +6381,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K62" s="4">
         <v>1971</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M62" s="4">
         <v>6.61</v>
@@ -6164,13 +6411,13 @@
         <v>1</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6202,13 +6449,13 @@
         <v>0.1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K63" s="2">
         <v>1971</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M63" s="2">
         <v>6.61</v>
@@ -6232,13 +6479,13 @@
         <v>1</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6270,13 +6517,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K64" s="4">
         <v>1971</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M64" s="4">
         <v>6.61</v>
@@ -6300,13 +6547,13 @@
         <v>1</v>
       </c>
       <c r="T64" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V64" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -6338,13 +6585,13 @@
         <v>0.1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K65" s="2">
         <v>1971</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M65" s="2">
         <v>6.61</v>
@@ -6368,13 +6615,13 @@
         <v>1</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6406,13 +6653,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K66" s="4">
         <v>1971</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M66" s="4">
         <v>6.61</v>
@@ -6436,13 +6683,13 @@
         <v>1</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="V66" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -6474,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K67" s="2">
         <v>1971</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M67" s="2">
         <v>6.61</v>
@@ -6504,13 +6751,13 @@
         <v>1</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -6542,7 +6789,7 @@
         <v>0.7</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K68" s="4">
         <v>1971</v>
@@ -6572,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V68" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -6610,13 +6857,13 @@
         <v>0.1</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K69" s="2">
         <v>1971</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M69" s="2">
         <v>6.61</v>
@@ -6640,13 +6887,13 @@
         <v>1</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6678,13 +6925,13 @@
         <v>0.3</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K70" s="4">
         <v>1971</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M70" s="4">
         <v>6.61</v>
@@ -6708,13 +6955,13 @@
         <v>1</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -6746,13 +6993,13 @@
         <v>0.9</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K71" s="2">
         <v>1971</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M71" s="2">
         <v>6.61</v>
@@ -6776,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6814,13 +7061,13 @@
         <v>0.3</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K72" s="4">
         <v>1971</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M72" s="4">
         <v>6.61</v>
@@ -6844,13 +7091,13 @@
         <v>1</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6882,13 +7129,13 @@
         <v>0.2</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K73" s="2">
         <v>1971</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M73" s="2">
         <v>6.61</v>
@@ -6912,13 +7159,13 @@
         <v>1</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -6950,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K74" s="4">
         <v>1971</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M74" s="4">
         <v>6.61</v>
@@ -6980,13 +7227,13 @@
         <v>1</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7018,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K75" s="2">
         <v>1971</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M75" s="2">
         <v>6.61</v>
@@ -7048,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7086,13 +7333,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K76" s="4">
         <v>1971</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M76" s="4">
         <v>6.61</v>
@@ -7116,13 +7363,13 @@
         <v>1</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V76" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="45" x14ac:dyDescent="0.3">
@@ -7154,13 +7401,13 @@
         <v>8.9</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K77" s="2">
         <v>1971</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M77" s="2">
         <v>6.61</v>
@@ -7184,13 +7431,13 @@
         <v>1</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7222,13 +7469,13 @@
         <v>0.3</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K78" s="4">
         <v>1971</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M78" s="4">
         <v>6.61</v>
@@ -7252,13 +7499,13 @@
         <v>1</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -7290,7 +7537,7 @@
         <v>0.2</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K79" s="2">
         <v>1971</v>
@@ -7320,13 +7567,13 @@
         <v>1</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -7358,13 +7605,13 @@
         <v>0.3</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K80" s="4">
         <v>1971</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M80" s="4">
         <v>6.61</v>
@@ -7388,13 +7635,13 @@
         <v>1</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="V80" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7426,13 +7673,13 @@
         <v>0.2</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K81" s="2">
         <v>1971</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M81" s="2">
         <v>6.61</v>
@@ -7456,13 +7703,13 @@
         <v>1</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7494,13 +7741,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K82" s="4">
         <v>1971</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M82" s="4">
         <v>6.61</v>
@@ -7524,13 +7771,13 @@
         <v>1</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V82" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -7562,13 +7809,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K83" s="2">
         <v>1971</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M83" s="2">
         <v>6.61</v>
@@ -7592,13 +7839,13 @@
         <v>1</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -7630,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K84" s="4">
         <v>1971</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M84" s="4">
         <v>6.61</v>
@@ -7660,13 +7907,13 @@
         <v>1</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="U84" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V84" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7698,13 +7945,13 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K85" s="2">
         <v>1971</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M85" s="2">
         <v>6.61</v>
@@ -7728,13 +7975,13 @@
         <v>1</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -7766,13 +8013,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K86" s="4">
         <v>1971</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M86" s="4">
         <v>6.61</v>
@@ -7796,13 +8043,13 @@
         <v>1</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V86" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7834,13 +8081,13 @@
         <v>0.3</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K87" s="2">
         <v>1971</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M87" s="2">
         <v>6.61</v>
@@ -7864,13 +8111,13 @@
         <v>1</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -7902,13 +8149,13 @@
         <v>0.2</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K88" s="4">
         <v>1971</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M88" s="4">
         <v>6.61</v>
@@ -7932,13 +8179,13 @@
         <v>1</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V88" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -7970,13 +8217,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K89" s="2">
         <v>1971</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M89" s="2">
         <v>6.61</v>
@@ -8000,13 +8247,13 @@
         <v>1</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8038,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K90" s="4">
         <v>1971</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M90" s="4">
         <v>6.61</v>
@@ -8068,13 +8315,13 @@
         <v>1</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="U90" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V90" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.3">
@@ -8106,13 +8353,13 @@
         <v>0.1</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K91" s="2">
         <v>1971</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M91" s="2">
         <v>6.61</v>
@@ -8136,13 +8383,13 @@
         <v>1</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8174,13 +8421,13 @@
         <v>0</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K92" s="4">
         <v>1971</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M92" s="4">
         <v>6.61</v>
@@ -8204,13 +8451,13 @@
         <v>1</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V92" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8242,13 +8489,13 @@
         <v>0.2</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K93" s="2">
         <v>1971</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M93" s="2">
         <v>6.61</v>
@@ -8272,13 +8519,13 @@
         <v>1</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8310,13 +8557,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K94" s="4">
         <v>1971</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M94" s="4">
         <v>6.61</v>
@@ -8340,13 +8587,13 @@
         <v>1</v>
       </c>
       <c r="T94" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U94" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V94" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8378,13 +8625,13 @@
         <v>2</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K95" s="2">
         <v>1972</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M95" s="2">
         <v>6.24</v>
@@ -8408,13 +8655,13 @@
         <v>1</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8446,13 +8693,13 @@
         <v>0.4</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K96" s="4">
         <v>1972</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M96" s="4">
         <v>5.2</v>
@@ -8476,13 +8723,13 @@
         <v>1</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="U96" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="V96" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -8514,13 +8761,13 @@
         <v>0.1</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K97" s="6">
         <v>1973</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M97" s="6">
         <v>5.65</v>
@@ -8544,13 +8791,13 @@
         <v>1</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="U97" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -8582,13 +8829,13 @@
         <v>0</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K98" s="4">
         <v>1974</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M98" s="4">
         <v>5.14</v>
@@ -8612,13 +8859,13 @@
         <v>1</v>
       </c>
       <c r="T98" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="V98" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -8650,7 +8897,7 @@
         <v>0.2</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K99" s="2">
         <v>1974</v>
@@ -8680,13 +8927,13 @@
         <v>1</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="33.75" x14ac:dyDescent="0.3">
@@ -8718,13 +8965,13 @@
         <v>0.1</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K100" s="4">
         <v>1974</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M100" s="4">
         <v>5.14</v>
@@ -8748,13 +8995,13 @@
         <v>1</v>
       </c>
       <c r="T100" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U100" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="V100" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
@@ -8786,13 +9033,13 @@
         <v>0.1</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K101" s="2">
         <v>1975</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M101" s="2">
         <v>5.2</v>
@@ -8816,13 +9063,13 @@
         <v>1</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V101" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8838,10 +9085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8851,234 +9098,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>4</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>8</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>9</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>469</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>10</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>11</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>12</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>13</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>14</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>485</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>